--- a/ドキュメント類/API設計書.xlsx
+++ b/ドキュメント類/API設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C439A1F-088B-447F-914C-9D00EB011F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B3912-0646-49AB-891E-77B257319D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{CE3F7B73-C96F-478E-AFF3-DB3939527D66}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="1.店舗API" sheetId="3" r:id="rId3"/>
     <sheet name="2.立地API" sheetId="4" r:id="rId4"/>
     <sheet name="3.味API" sheetId="5" r:id="rId5"/>
-    <sheet name="４.駅API" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="95">
   <si>
     <t>◎API一覧</t>
     <rPh sb="4" eb="6">
@@ -264,13 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>駅API</t>
-    <rPh sb="0" eb="1">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>店に関するAPI</t>
     <rPh sb="0" eb="1">
       <t>ミセ</t>
@@ -301,16 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>駅に関するAPI</t>
-    <rPh sb="0" eb="1">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>店舗に関するAPI</t>
     <rPh sb="0" eb="2">
       <t>テンポ</t>
@@ -485,34 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stationList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>駅リスト</t>
-    <rPh sb="0" eb="1">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●駅取得</t>
-    <rPh sb="1" eb="2">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>立地コード</t>
-    <rPh sb="0" eb="2">
-      <t>リッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロトコル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -541,10 +495,6 @@
   </si>
   <si>
     <t>taste</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>station</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -729,10 +679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,7 +1020,7 @@
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1102,22 +1052,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>5</v>
@@ -1131,16 +1081,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>3</v>
@@ -1161,26 +1111,26 @@
         <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" ref="J6:J9" si="0">CONCATENATE(E6,"://",F6,"/",G6,"/",H6,"/",I6)</f>
         <v>https://food-composer.appspot.com/api/v1/shop</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1191,26 +1141,26 @@
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>https://food-composer.appspot.com/api/v1/place</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1221,57 +1171,40 @@
         <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>https://food-composer.appspot.com/api/v1/taste</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://food-composer.appspot.com/api/v1/station</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="4">
@@ -1425,16 +1358,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="15" t="s">
@@ -1498,11 +1431,11 @@
       <c r="E17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="6">
@@ -1576,11 +1509,11 @@
       <c r="E24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="6">
@@ -1642,16 +1575,16 @@
         <v>10</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="15" t="s">
@@ -1763,11 +1696,11 @@
       <c r="E39" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -1866,11 +1799,11 @@
       <c r="E48" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="6">
@@ -1944,11 +1877,11 @@
       <c r="E55" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="6">
@@ -2001,18 +1934,12 @@
     <row r="59" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E9:L9"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="C33:D33"/>
@@ -2029,12 +1956,18 @@
     <mergeCell ref="E31:L31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:L32"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2111,7 +2044,7 @@
     <row r="6" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2120,16 +2053,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="15" t="s">
@@ -2153,7 +2086,7 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -2195,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2216,11 +2149,11 @@
       <c r="E16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2231,13 +2164,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2251,13 +2184,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2271,13 +2204,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2291,13 +2224,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -2311,13 +2244,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -2331,13 +2264,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -2377,24 +2310,24 @@
       <c r="E26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -2404,13 +2337,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -2420,13 +2353,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -2473,13 +2406,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
@@ -2489,13 +2422,13 @@
         <v>2</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
@@ -2503,6 +2436,15 @@
     <row r="36" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:L11"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="F16:H16"/>
@@ -2516,15 +2458,6 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,7 +2537,7 @@
     <row r="6" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2613,16 +2546,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="15" t="s">
@@ -2646,7 +2579,7 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2688,7 +2621,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2709,11 +2642,11 @@
       <c r="E16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2724,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2744,13 +2677,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2790,24 +2723,24 @@
       <c r="E22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -2817,13 +2750,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2833,13 +2766,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2886,13 +2819,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
@@ -2902,13 +2835,13 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
@@ -2916,17 +2849,6 @@
     <row r="32" spans="3:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F22:H22"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F18:H18"/>
@@ -2934,6 +2856,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3013,7 +2946,7 @@
     <row r="6" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3022,16 +2955,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="15" t="s">
@@ -3055,7 +2988,7 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -3097,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -3118,11 +3051,11 @@
       <c r="E16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -3133,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -3153,13 +3086,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -3199,24 +3132,24 @@
       <c r="E22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="10">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -3226,13 +3159,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -3242,13 +3175,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -3295,13 +3228,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
@@ -3311,13 +3244,13 @@
         <v>2</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
@@ -3325,17 +3258,6 @@
     <row r="32" spans="3:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F22:H22"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F18:H18"/>
@@ -3343,415 +3265,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F25:H25"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E276B-2187-4642-B78A-85BF643D8C7F}">
-  <dimension ref="B1:L32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("◎",API一覧!D9)</f>
-        <v>◎駅API</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
-        <f>API一覧!C9</f>
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="15" t="str">
-        <f>API一覧!J9</f>
-        <v>https://food-composer.appspot.com/api/v1/station</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <f>API一覧!D9</f>
-        <v>駅API</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="15" t="str">
-        <f>API一覧!K9</f>
-        <v>駅に関するAPI</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="3:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="12">
-        <v>3</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="3:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="10">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="10">
-        <v>2</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="3:12" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  </sheetData>
-  <mergeCells count="18">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
